--- a/Android/ExcelData/ItemTable.xlsx
+++ b/Android/ExcelData/ItemTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFB374E-A2AF-4872-BADF-ED104C9E90C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8E6F7B-5080-4265-98A0-F2AD41EFE390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{B2628D29-E062-4AF2-A082-150E494F11EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{B2628D29-E062-4AF2-A082-150E494F11EB}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="79">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,14 +193,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>캐릭터 조각 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>character_piece_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>판매가격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -360,6 +352,15 @@
   <si>
     <t>Expendable_Item_Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 아이디</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>player_character_id</t>
   </si>
 </sst>
 </file>
@@ -510,8 +511,11 @@
     <sheetNames>
       <sheetName val="@tribe"/>
       <sheetName val="@position"/>
+      <sheetName val="@role"/>
       <sheetName val="@npc"/>
       <sheetName val="@target_rule"/>
+      <sheetName val="@character_sort"/>
+      <sheetName val="@stage_common"/>
       <sheetName val="@second_target_rule"/>
       <sheetName val="@effect"/>
       <sheetName val="@stat"/>
@@ -545,7 +549,10 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17">
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20">
         <row r="1">
           <cell r="A1" t="str">
             <v>ITEM_TYPE</v>
@@ -1184,7 +1191,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1510,7 +1517,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="A2:F5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1529,7 +1536,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -1538,18 +1545,18 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -1569,7 +1576,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
@@ -1578,10 +1585,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>16</v>
@@ -1592,10 +1599,10 @@
         <v>100001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="4">
         <v>100</v>
@@ -1616,7 +1623,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1631,12 +1638,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -1645,13 +1652,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1676,7 +1683,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
@@ -1685,10 +1692,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>16</v>
@@ -1699,10 +1706,10 @@
         <v>50001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" s="4">
         <v>200</v>
@@ -1717,10 +1724,10 @@
         <v>50002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" s="4">
         <v>400</v>
@@ -1735,10 +1742,10 @@
         <v>50003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="4">
         <v>600</v>
@@ -1753,10 +1760,10 @@
         <v>50004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D8" s="4">
         <v>1000</v>
@@ -1792,12 +1799,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -1806,13 +1813,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1837,7 +1844,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
@@ -1846,10 +1853,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>16</v>
@@ -1860,10 +1867,10 @@
         <v>60001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D5" s="4">
         <v>3000</v>
@@ -1878,10 +1885,10 @@
         <v>60002</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="D6" s="4">
         <v>3000</v>
@@ -1896,10 +1903,10 @@
         <v>60003</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D7" s="4">
         <v>3000</v>
@@ -1919,8 +1926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA552F8F-374E-479E-B82B-E4BD6D182486}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1934,12 +1941,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -1948,10 +1955,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1973,7 +1980,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
@@ -1982,7 +1989,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
@@ -1993,10 +2000,10 @@
         <v>70001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D5" s="4">
         <v>100</v>
@@ -2013,8 +2020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303419CA-983B-46A1-A99F-B2A6FFA71C4A}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2028,12 +2035,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -2042,10 +2049,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2067,7 +2074,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
@@ -2076,7 +2083,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
@@ -2087,10 +2094,10 @@
         <v>90001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D5" s="4">
         <v>50</v>
@@ -2102,10 +2109,10 @@
         <v>90002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D6" s="4">
         <v>100</v>

--- a/Android/ExcelData/ItemTable.xlsx
+++ b/Android/ExcelData/ItemTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8E6F7B-5080-4265-98A0-F2AD41EFE390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB99B10-3B45-499A-9248-E6C85600C252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{B2628D29-E062-4AF2-A082-150E494F11EB}"/>
+    <workbookView xWindow="40890" yWindow="1530" windowWidth="21150" windowHeight="18420" firstSheet="1" activeTab="6" xr2:uid="{B2628D29-E062-4AF2-A082-150E494F11EB}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,11 @@
     <sheet name="exp_potion" sheetId="4" r:id="rId4"/>
     <sheet name="sta_potion" sheetId="5" r:id="rId5"/>
     <sheet name="memoritem" sheetId="6" r:id="rId6"/>
-    <sheet name="expendable_item" sheetId="7" r:id="rId7"/>
+    <sheet name="favorite_item" sheetId="8" r:id="rId7"/>
+    <sheet name="expendable_item" sheetId="7" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,8 +45,170 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>cjhdino</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{7F0905BC-C00F-4F05-8CA5-5AAC32AEAE32}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">cjhdino:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>호감도</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선물</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>호감도</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경험치의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기본</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>증가량</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="90">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -361,13 +524,56 @@
   </si>
   <si>
     <t>player_character_id</t>
+  </si>
+  <si>
+    <t>인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영문명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>툴팁 TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매 가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_en</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_tooltip_text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Favorite_Item_Data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,8 +607,39 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,6 +667,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,7 +706,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -484,6 +727,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -688,6 +943,17 @@
           </cell>
           <cell r="C14" t="str">
             <v>장비</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>FAVORITE_ITEM</v>
+          </cell>
+          <cell r="B15">
+            <v>11</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>호감도 아이템</v>
           </cell>
         </row>
       </sheetData>
@@ -993,7 +1259,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149ECFB0-CE6D-484A-BAEE-DCD03040B91B}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
@@ -1178,6 +1444,20 @@
       <c r="C13" s="4" t="str">
         <f>'[1]@item_type'!$C14</f>
         <v>장비</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="str">
+        <f>'[1]@item_type'!$A15</f>
+        <v>FAVORITE_ITEM</v>
+      </c>
+      <c r="B14" s="4">
+        <f>'[1]@item_type'!$B15</f>
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <f>'[1]@item_type'!$C15</f>
+        <v>호감도 아이템</v>
       </c>
     </row>
   </sheetData>
@@ -1926,7 +2206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA552F8F-374E-479E-B82B-E4BD6D182486}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
@@ -2017,11 +2297,121 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD83EE68-2622-4A0B-8424-730699429833}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303419CA-983B-46A1-A99F-B2A6FFA71C4A}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Android/ExcelData/ItemTable.xlsx
+++ b/Android/ExcelData/ItemTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB99B10-3B45-499A-9248-E6C85600C252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93B923C-B2C3-4D28-807D-408456EE771C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40890" yWindow="1530" windowWidth="21150" windowHeight="18420" firstSheet="1" activeTab="6" xr2:uid="{B2628D29-E062-4AF2-A082-150E494F11EB}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="6" xr2:uid="{B2628D29-E062-4AF2-A082-150E494F11EB}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
     <author>cjhdino</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{7F0905BC-C00F-4F05-8CA5-5AAC32AEAE32}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{7F0905BC-C00F-4F05-8CA5-5AAC32AEAE32}">
       <text>
         <r>
           <rPr>
@@ -208,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="95">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -530,18 +530,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>영문명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>한글명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>툴팁 TEXT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -554,10 +546,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>item_name_en</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>item_name_kr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -567,6 +555,37 @@
   </si>
   <si>
     <t>Favorite_Item_Data</t>
+  </si>
+  <si>
+    <t>화장품 세트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유명 메이커의 화장품 세트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>향수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유명 메이커의 향수</t>
+  </si>
+  <si>
+    <t>시집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감성적인 시들을 모아놓은 시집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃다발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예쁜 꽃다발. 꽃을 싫어하는 소녀는 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1265,20 +1284,20 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="34.875" customWidth="1"/>
+    <col min="1" max="1" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.69921875" customWidth="1"/>
+    <col min="3" max="3" width="34.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="str">
         <f>'[1]@item_type'!$A$1</f>
         <v>ITEM_TYPE</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="str">
         <f>'[1]@item_type'!$A3</f>
         <v>type</v>
@@ -1292,7 +1311,7 @@
         <v>comment</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="str">
         <f>'[1]@item_type'!$A4</f>
         <v>NONE</v>
@@ -1306,7 +1325,7 @@
         <v>NONE</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="str">
         <f>'[1]@item_type'!$A5</f>
         <v>GOLD</v>
@@ -1320,7 +1339,7 @@
         <v>금화(게임내 사용되는 재화)</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="str">
         <f>'[1]@item_type'!$A6</f>
         <v>DIA</v>
@@ -1334,7 +1353,7 @@
         <v>보석(게임내 사용되는 유료 재화)</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="str">
         <f>'[1]@item_type'!$A7</f>
         <v>DUNGEON_TICKET</v>
@@ -1348,7 +1367,7 @@
         <v>던전 입장 티켓</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="str">
         <f>'[1]@item_type'!$A8</f>
         <v>CHARACTER_PIECE</v>
@@ -1362,7 +1381,7 @@
         <v>캐릭터 조각</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="str">
         <f>'[1]@item_type'!$A9</f>
         <v>EXP_POTION</v>
@@ -1376,7 +1395,7 @@
         <v>경험치 물약</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="str">
         <f>'[1]@item_type'!$A10</f>
         <v>STA_POTION</v>
@@ -1390,7 +1409,7 @@
         <v>스테미나 회복 물약</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="str">
         <f>'[1]@item_type'!$A11</f>
         <v>MEMORIAL_ITEM</v>
@@ -1404,7 +1423,7 @@
         <v>메모리얼에서 사용될 아이템</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="str">
         <f>'[1]@item_type'!$A12</f>
         <v>CHARACTER</v>
@@ -1418,7 +1437,7 @@
         <v>캐릭터 완전체</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="str">
         <f>'[1]@item_type'!$A13</f>
         <v>EXPENDABLE_ITEM</v>
@@ -1432,7 +1451,7 @@
         <v>각종 소모용 아이템</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="str">
         <f>'[1]@item_type'!$A14</f>
         <v>EQUIPMENT_ITEM</v>
@@ -1446,7 +1465,7 @@
         <v>장비</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="str">
         <f>'[1]@item_type'!$A15</f>
         <v>FAVORITE_ITEM</v>
@@ -1471,26 +1490,26 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.75" customWidth="1"/>
-    <col min="2" max="2" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.69921875" customWidth="1"/>
+    <col min="2" max="2" width="26.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="36.125" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="36.09765625" customWidth="1"/>
+    <col min="5" max="5" width="16.8984375" customWidth="1"/>
     <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="7" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1513,7 +1532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1536,7 +1555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1559,7 +1578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -1581,7 +1600,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -1603,7 +1622,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -1625,7 +1644,7 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -1645,7 +1664,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -1665,7 +1684,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -1685,7 +1704,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -1705,7 +1724,7 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -1727,7 +1746,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -1747,7 +1766,7 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -1797,24 +1816,24 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.875" customWidth="1"/>
+    <col min="1" max="1" width="22.8984375" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="19.875" customWidth="1"/>
+    <col min="4" max="5" width="12.3984375" customWidth="1"/>
+    <col min="6" max="6" width="19.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>76</v>
       </c>
@@ -1834,7 +1853,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>77</v>
       </c>
@@ -1854,7 +1873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -1874,9 +1893,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
-        <v>100001</v>
+        <v>10001</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>39</v>
@@ -1906,22 +1925,22 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="55.5" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="16.09765625" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
@@ -1941,7 +1960,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1961,7 +1980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>45</v>
       </c>
@@ -1981,7 +2000,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>50001</v>
       </c>
@@ -1999,7 +2018,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>50002</v>
       </c>
@@ -2017,7 +2036,7 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>50003</v>
       </c>
@@ -2035,7 +2054,7 @@
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>50004</v>
       </c>
@@ -2067,22 +2086,22 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="6" width="26.25" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" customWidth="1"/>
+    <col min="5" max="5" width="15.3984375" customWidth="1"/>
+    <col min="6" max="6" width="26.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -2102,7 +2121,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2122,7 +2141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>74</v>
       </c>
@@ -2142,7 +2161,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>60001</v>
       </c>
@@ -2160,7 +2179,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>60002</v>
       </c>
@@ -2178,7 +2197,7 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>60003</v>
       </c>
@@ -2210,21 +2229,21 @@
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="1" max="1" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3984375" customWidth="1"/>
     <col min="3" max="3" width="42.5" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="15.09765625" customWidth="1"/>
+    <col min="5" max="5" width="16.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
@@ -2241,7 +2260,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2258,7 +2277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>65</v>
       </c>
@@ -2275,7 +2294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>70001</v>
       </c>
@@ -2298,30 +2317,28 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD83EE68-2622-4A0B-8424-730699429833}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>79</v>
       </c>
@@ -2329,25 +2346,19 @@
         <v>80</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="F2" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -2355,7 +2366,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>5</v>
@@ -2364,39 +2375,95 @@
         <v>0</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="E4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>40001</v>
+      </c>
+      <c r="B5" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="C5">
+        <v>500</v>
+      </c>
+      <c r="D5" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>16</v>
+      <c r="E5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>40002</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6">
+        <v>500</v>
+      </c>
+      <c r="D6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>40003</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7">
+        <v>500</v>
+      </c>
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>40010</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8">
+        <v>2000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
@@ -2411,24 +2478,24 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="18.09765625" customWidth="1"/>
+    <col min="2" max="2" width="16.8984375" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="32.125" customWidth="1"/>
+    <col min="4" max="4" width="17.09765625" customWidth="1"/>
+    <col min="5" max="5" width="32.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>66</v>
       </c>
@@ -2445,7 +2512,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2462,7 +2529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>70</v>
       </c>
@@ -2479,7 +2546,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>90001</v>
       </c>
@@ -2494,7 +2561,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>90002</v>
       </c>

--- a/Android/ExcelData/ItemTable.xlsx
+++ b/Android/ExcelData/ItemTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93B923C-B2C3-4D28-807D-408456EE771C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931E67CA-0C5C-425A-A277-20CAEF45D78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="6" xr2:uid="{B2628D29-E062-4AF2-A082-150E494F11EB}"/>
+    <workbookView xWindow="51165" yWindow="1455" windowWidth="23460" windowHeight="18420" activeTab="1" xr2:uid="{B2628D29-E062-4AF2-A082-150E494F11EB}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="97">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -585,6 +585,14 @@
   </si>
   <si>
     <t>예쁜 꽃다발. 꽃을 싫어하는 소녀는 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스태미나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호감도 아이템</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -973,6 +981,17 @@
           </cell>
           <cell r="C15" t="str">
             <v>호감도 아이템</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>STAMINA</v>
+          </cell>
+          <cell r="B16">
+            <v>12</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>스태미나</v>
           </cell>
         </row>
       </sheetData>
@@ -1278,26 +1297,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149ECFB0-CE6D-484A-BAEE-DCD03040B91B}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.69921875" customWidth="1"/>
-    <col min="3" max="3" width="34.8984375" customWidth="1"/>
+    <col min="1" max="1" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="34.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'[1]@item_type'!$A$1</f>
         <v>ITEM_TYPE</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="str">
         <f>'[1]@item_type'!$A3</f>
         <v>type</v>
@@ -1311,7 +1330,7 @@
         <v>comment</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="str">
         <f>'[1]@item_type'!$A4</f>
         <v>NONE</v>
@@ -1325,7 +1344,7 @@
         <v>NONE</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="str">
         <f>'[1]@item_type'!$A5</f>
         <v>GOLD</v>
@@ -1339,7 +1358,7 @@
         <v>금화(게임내 사용되는 재화)</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="str">
         <f>'[1]@item_type'!$A6</f>
         <v>DIA</v>
@@ -1353,7 +1372,7 @@
         <v>보석(게임내 사용되는 유료 재화)</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="str">
         <f>'[1]@item_type'!$A7</f>
         <v>DUNGEON_TICKET</v>
@@ -1367,7 +1386,7 @@
         <v>던전 입장 티켓</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="str">
         <f>'[1]@item_type'!$A8</f>
         <v>CHARACTER_PIECE</v>
@@ -1381,7 +1400,7 @@
         <v>캐릭터 조각</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="str">
         <f>'[1]@item_type'!$A9</f>
         <v>EXP_POTION</v>
@@ -1395,7 +1414,7 @@
         <v>경험치 물약</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="str">
         <f>'[1]@item_type'!$A10</f>
         <v>STA_POTION</v>
@@ -1409,7 +1428,7 @@
         <v>스테미나 회복 물약</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="str">
         <f>'[1]@item_type'!$A11</f>
         <v>MEMORIAL_ITEM</v>
@@ -1423,7 +1442,7 @@
         <v>메모리얼에서 사용될 아이템</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="str">
         <f>'[1]@item_type'!$A12</f>
         <v>CHARACTER</v>
@@ -1437,7 +1456,7 @@
         <v>캐릭터 완전체</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="str">
         <f>'[1]@item_type'!$A13</f>
         <v>EXPENDABLE_ITEM</v>
@@ -1451,7 +1470,7 @@
         <v>각종 소모용 아이템</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="str">
         <f>'[1]@item_type'!$A14</f>
         <v>EQUIPMENT_ITEM</v>
@@ -1465,7 +1484,7 @@
         <v>장비</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="str">
         <f>'[1]@item_type'!$A15</f>
         <v>FAVORITE_ITEM</v>
@@ -1477,6 +1496,20 @@
       <c r="C14" s="4" t="str">
         <f>'[1]@item_type'!$C15</f>
         <v>호감도 아이템</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="str">
+        <f>'[1]@item_type'!$A16</f>
+        <v>STAMINA</v>
+      </c>
+      <c r="B15" s="4">
+        <f>'[1]@item_type'!$B16</f>
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="str">
+        <f>'[1]@item_type'!$C16</f>
+        <v>스태미나</v>
       </c>
     </row>
   </sheetData>
@@ -1487,29 +1520,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E24697-E48E-4F6A-AA29-F0F39AB27164}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.69921875" customWidth="1"/>
-    <col min="2" max="2" width="26.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="26.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="36.09765625" customWidth="1"/>
-    <col min="5" max="5" width="16.8984375" customWidth="1"/>
+    <col min="4" max="4" width="36.125" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
     <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="7" width="14.3984375" customWidth="1"/>
+    <col min="7" max="7" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1532,7 +1565,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1555,7 +1588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1578,12 +1611,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$13,MATCH(A5,'!참조_ENUM'!$B$3:$B$13,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$15,MATCH(A5,'!참조_ENUM'!$B$3:$B$15,0))</f>
         <v>금화(게임내 사용되는 재화)</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1600,12 +1633,12 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
       <c r="B6" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$13,MATCH(A6,'!참조_ENUM'!$B$3:$B$13,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$15,MATCH(A6,'!참조_ENUM'!$B$3:$B$15,0))</f>
         <v>보석(게임내 사용되는 유료 재화)</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1622,12 +1655,12 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>3</v>
       </c>
       <c r="B7" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$13,MATCH(A7,'!참조_ENUM'!$B$3:$B$13,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$15,MATCH(A7,'!참조_ENUM'!$B$3:$B$15,0))</f>
         <v>던전 입장 티켓</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1644,12 +1677,12 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>4</v>
       </c>
       <c r="B8" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$13,MATCH(A8,'!참조_ENUM'!$B$3:$B$13,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$15,MATCH(A8,'!참조_ENUM'!$B$3:$B$15,0))</f>
         <v>캐릭터 조각</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1664,12 +1697,12 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>5</v>
       </c>
       <c r="B9" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$13,MATCH(A9,'!참조_ENUM'!$B$3:$B$13,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$15,MATCH(A9,'!참조_ENUM'!$B$3:$B$15,0))</f>
         <v>경험치 물약</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1684,12 +1717,12 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>6</v>
       </c>
       <c r="B10" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$13,MATCH(A10,'!참조_ENUM'!$B$3:$B$13,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$15,MATCH(A10,'!참조_ENUM'!$B$3:$B$15,0))</f>
         <v>스테미나 회복 물약</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1704,12 +1737,12 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>7</v>
       </c>
       <c r="B11" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$13,MATCH(A11,'!참조_ENUM'!$B$3:$B$13,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$15,MATCH(A11,'!참조_ENUM'!$B$3:$B$15,0))</f>
         <v>메모리얼에서 사용될 아이템</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -1724,12 +1757,12 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>8</v>
       </c>
       <c r="B12" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$13,MATCH(A12,'!참조_ENUM'!$B$3:$B$13,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$15,MATCH(A12,'!참조_ENUM'!$B$3:$B$15,0))</f>
         <v>캐릭터 완전체</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1746,12 +1779,12 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>9</v>
       </c>
       <c r="B13" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$13,MATCH(A13,'!참조_ENUM'!$B$3:$B$13,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$15,MATCH(A13,'!참조_ENUM'!$B$3:$B$15,0))</f>
         <v>각종 소모용 아이템</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -1766,12 +1799,12 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>10</v>
       </c>
       <c r="B14" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$13,MATCH(A14,'!참조_ENUM'!$B$3:$B$13,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$15,MATCH(A14,'!참조_ENUM'!$B$3:$B$15,0))</f>
         <v>장비</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1787,11 +1820,55 @@
         <v>99</v>
       </c>
       <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$15,MATCH(A15,'!참조_ENUM'!$B$3:$B$15,0))</f>
+        <v>호감도 아이템</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>999</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$15,MATCH(A16,'!참조_ENUM'!$B$3:$B$15,0))</f>
+        <v>스태미나</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>9999</v>
+      </c>
+      <c r="G16" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E14" xr:uid="{9D841D58-6C47-410F-ADA3-FEC0363246B2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E16" xr:uid="{9D841D58-6C47-410F-ADA3-FEC0363246B2}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1801,9 +1878,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DCDBC6CE-91DD-4B17-A8C6-30547CA6D351}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$B$3:$B$13</xm:f>
+            <xm:f>'!참조_ENUM'!$B$3:$B$15</xm:f>
           </x14:formula1>
-          <xm:sqref>A5:A14</xm:sqref>
+          <xm:sqref>A5:A16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1819,21 +1896,21 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.8984375" customWidth="1"/>
+    <col min="1" max="1" width="22.875" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="5" width="12.3984375" customWidth="1"/>
-    <col min="6" max="6" width="19.8984375" customWidth="1"/>
+    <col min="4" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>76</v>
       </c>
@@ -1853,7 +1930,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>77</v>
       </c>
@@ -1873,7 +1950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -1893,7 +1970,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>10001</v>
       </c>
@@ -1925,22 +2002,22 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="55.5" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="16.09765625" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
@@ -1960,7 +2037,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1980,7 +2057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>45</v>
       </c>
@@ -2000,7 +2077,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>50001</v>
       </c>
@@ -2018,7 +2095,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>50002</v>
       </c>
@@ -2036,7 +2113,7 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>50003</v>
       </c>
@@ -2054,7 +2131,7 @@
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>50004</v>
       </c>
@@ -2086,22 +2163,22 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="11.3984375" customWidth="1"/>
-    <col min="5" max="5" width="15.3984375" customWidth="1"/>
-    <col min="6" max="6" width="26.19921875" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -2121,7 +2198,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2141,7 +2218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>74</v>
       </c>
@@ -2161,7 +2238,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>60001</v>
       </c>
@@ -2179,7 +2256,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>60002</v>
       </c>
@@ -2197,7 +2274,7 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>60003</v>
       </c>
@@ -2229,21 +2306,21 @@
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.3984375" customWidth="1"/>
+    <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="42.5" customWidth="1"/>
-    <col min="4" max="4" width="15.09765625" customWidth="1"/>
-    <col min="5" max="5" width="16.8984375" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
@@ -2260,7 +2337,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2277,7 +2354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>65</v>
       </c>
@@ -2294,7 +2371,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>70001</v>
       </c>
@@ -2319,26 +2396,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD83EE68-2622-4A0B-8424-730699429833}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>79</v>
       </c>
@@ -2358,7 +2435,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -2378,7 +2455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>83</v>
       </c>
@@ -2398,7 +2475,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>40001</v>
       </c>
@@ -2415,7 +2492,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>40002</v>
       </c>
@@ -2432,7 +2509,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>40003</v>
       </c>
@@ -2449,7 +2526,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>40010</v>
       </c>
@@ -2481,21 +2558,21 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.09765625" customWidth="1"/>
-    <col min="2" max="2" width="16.8984375" customWidth="1"/>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
-    <col min="4" max="4" width="17.09765625" customWidth="1"/>
-    <col min="5" max="5" width="32.09765625" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>66</v>
       </c>
@@ -2512,7 +2589,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2529,7 +2606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>70</v>
       </c>
@@ -2546,7 +2623,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>90001</v>
       </c>
@@ -2561,7 +2638,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>90002</v>
       </c>

--- a/Android/ExcelData/ItemTable.xlsx
+++ b/Android/ExcelData/ItemTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931E67CA-0C5C-425A-A277-20CAEF45D78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C06972-BCA2-45E0-BF24-12B228FBDB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51165" yWindow="1455" windowWidth="23460" windowHeight="18420" activeTab="1" xr2:uid="{B2628D29-E062-4AF2-A082-150E494F11EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{B2628D29-E062-4AF2-A082-150E494F11EB}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -542,10 +542,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>item_index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>item_name_kr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -593,6 +589,10 @@
   </si>
   <si>
     <t>호감도 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>favorite_item_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -792,6 +792,7 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="@tribe"/>
+      <sheetName val="@stage"/>
       <sheetName val="@position"/>
       <sheetName val="@role"/>
       <sheetName val="@npc"/>
@@ -834,7 +835,8 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20">
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21">
         <row r="1">
           <cell r="A1" t="str">
             <v>ITEM_TYPE</v>
@@ -1522,8 +1524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E24697-E48E-4F6A-AA29-F0F39AB27164}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1830,10 +1832,10 @@
         <v>호감도 아이템</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E15" s="4" t="b">
         <v>0</v>
@@ -1852,10 +1854,10 @@
         <v>스태미나</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E16" s="4" t="b">
         <v>0</v>
@@ -2160,7 +2162,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2396,13 +2398,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD83EE68-2622-4A0B-8424-730699429833}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.125" bestFit="1" customWidth="1"/>
@@ -2412,7 +2414,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2457,16 +2459,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>83</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>84</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>38</v>
@@ -2476,72 +2478,76 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>40001</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="4">
+        <v>500</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C5">
+      <c r="E5" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>40002</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="4">
         <v>500</v>
       </c>
-      <c r="D5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5">
+      <c r="D6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>40002</v>
-      </c>
-      <c r="B6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6">
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>40003</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="4">
         <v>500</v>
       </c>
-      <c r="D6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6">
+      <c r="D7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>40003</v>
-      </c>
-      <c r="B7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7">
-        <v>500</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>40010</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>40010</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C8">
-        <v>2000</v>
-      </c>
-      <c r="D8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>5000</v>
       </c>
+      <c r="F8" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Android/ExcelData/ItemTable.xlsx
+++ b/Android/ExcelData/ItemTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C06972-BCA2-45E0-BF24-12B228FBDB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0608EF-5BA6-4051-BE62-07427788C86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{B2628D29-E062-4AF2-A082-150E494F11EB}"/>
+    <workbookView xWindow="38985" yWindow="2700" windowWidth="35370" windowHeight="15435" activeTab="7" xr2:uid="{B2628D29-E062-4AF2-A082-150E494F11EB}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="112">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -593,6 +593,57 @@
   </si>
   <si>
     <t>favorite_item_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Piece/Piece_100001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Exp/Exp_50001</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Exp/Exp_50002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Exp/Exp_50003</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Exp/Exp_50004</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Stamina/Stamina_60001</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Stamina/Stamina_60002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Stamina/Stamina_60003</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Memoritem/Memoritem_70001</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Favorite/Favorite_40001</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Favorite/Favorite_40002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Favorite/Favorite_40003</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Favorite/Favorite_40010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Expendable/Expendable_90001</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Card/Item_Icon/Expendable/Expendable_90002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -815,11 +866,35 @@
       <sheetName val="@item_type"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TRIBE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>POSITION_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ROLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>NPC_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
@@ -1525,7 +1600,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1536,7 +1611,7 @@
     <col min="4" max="4" width="36.125" customWidth="1"/>
     <col min="5" max="5" width="16.875" customWidth="1"/>
     <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="7" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1895,7 +1970,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1988,7 +2063,9 @@
       <c r="E5" s="4">
         <v>60</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2001,7 +2078,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F5" sqref="F5:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2095,7 +2172,9 @@
       <c r="E5" s="4">
         <v>100</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
@@ -2113,7 +2192,9 @@
       <c r="E6" s="4">
         <v>150</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
@@ -2131,7 +2212,9 @@
       <c r="E7" s="4">
         <v>300</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
@@ -2149,7 +2232,9 @@
       <c r="E8" s="4">
         <v>500</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2162,7 +2247,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F5" sqref="F5:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2256,7 +2341,9 @@
       <c r="E5" s="4">
         <v>50</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
@@ -2274,7 +2361,9 @@
       <c r="E6" s="4">
         <v>75</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
@@ -2292,7 +2381,9 @@
       <c r="E7" s="4">
         <v>100</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2305,7 +2396,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2386,7 +2477,9 @@
       <c r="D5" s="4">
         <v>100</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2398,8 +2491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD83EE68-2622-4A0B-8424-730699429833}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2454,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2493,7 +2586,9 @@
       <c r="E5" s="4">
         <v>1000</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
@@ -2511,7 +2606,9 @@
       <c r="E6" s="4">
         <v>1000</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
@@ -2529,7 +2626,9 @@
       <c r="E7" s="4">
         <v>1000</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
@@ -2547,7 +2646,9 @@
       <c r="E8" s="4">
         <v>5000</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2560,8 +2661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303419CA-983B-46A1-A99F-B2A6FFA71C4A}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2642,7 +2743,9 @@
       <c r="D5" s="4">
         <v>50</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
@@ -2657,7 +2760,9 @@
       <c r="D6" s="4">
         <v>100</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Android/ExcelData/ItemTable.xlsx
+++ b/Android/ExcelData/ItemTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0608EF-5BA6-4051-BE62-07427788C86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53FA35F-9312-48A8-99B3-611E343C651C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38985" yWindow="2700" windowWidth="35370" windowHeight="15435" activeTab="7" xr2:uid="{B2628D29-E062-4AF2-A082-150E494F11EB}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{B2628D29-E062-4AF2-A082-150E494F11EB}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,11 @@
     <sheet name="character_piece" sheetId="3" r:id="rId3"/>
     <sheet name="exp_potion" sheetId="4" r:id="rId4"/>
     <sheet name="sta_potion" sheetId="5" r:id="rId5"/>
-    <sheet name="memoritem" sheetId="6" r:id="rId6"/>
-    <sheet name="favorite_item" sheetId="8" r:id="rId7"/>
-    <sheet name="expendable_item" sheetId="7" r:id="rId8"/>
+    <sheet name="favorite_item" sheetId="8" r:id="rId6"/>
+    <sheet name="expendable_item" sheetId="7" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -208,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="106">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -465,18 +464,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Memoritem_Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메모리템 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memoritem_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>소모용 아이템 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -497,14 +484,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>루시아의 가위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>루시아 메모리얼에서 사용 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sta_Potion_Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -621,9 +600,6 @@
   </si>
   <si>
     <t>Assets/AssetResources/Textures/Card/Item_Icon/Stamina/Stamina_60003</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Card/Item_Icon/Memoritem/Memoritem_70001</t>
   </si>
   <si>
     <t>Assets/AssetResources/Textures/Card/Item_Icon/Favorite/Favorite_40001</t>
@@ -866,35 +842,11 @@
       <sheetName val="@item_type"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TRIBE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>POSITION_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ROLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>NPC_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
@@ -947,7 +899,7 @@
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>금화(게임내 사용되는 재화)</v>
+            <v>1 금화(게임내 사용되는 재화)</v>
           </cell>
         </row>
         <row r="6">
@@ -958,7 +910,7 @@
             <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>보석(게임내 사용되는 유료 재화)</v>
+            <v>2 보석(게임내 사용되는 유료 재화)</v>
           </cell>
         </row>
         <row r="7">
@@ -969,7 +921,7 @@
             <v>3</v>
           </cell>
           <cell r="C7" t="str">
-            <v>던전 입장 티켓</v>
+            <v>3 던전 입장 티켓</v>
           </cell>
         </row>
         <row r="8">
@@ -980,7 +932,7 @@
             <v>4</v>
           </cell>
           <cell r="C8" t="str">
-            <v>캐릭터 조각</v>
+            <v>4 캐릭터 조각</v>
           </cell>
         </row>
         <row r="9">
@@ -991,7 +943,7 @@
             <v>5</v>
           </cell>
           <cell r="C9" t="str">
-            <v>경험치 물약</v>
+            <v>5 경험치 물약</v>
           </cell>
         </row>
         <row r="10">
@@ -1002,7 +954,7 @@
             <v>6</v>
           </cell>
           <cell r="C10" t="str">
-            <v>스테미나 회복 물약</v>
+            <v>6 스테미나 회복 물약</v>
           </cell>
         </row>
         <row r="11">
@@ -1013,7 +965,7 @@
             <v>7</v>
           </cell>
           <cell r="C11" t="str">
-            <v>메모리얼에서 사용될 아이템</v>
+            <v>7 메모리얼에서 사용될 아이템</v>
           </cell>
         </row>
         <row r="12">
@@ -1024,7 +976,7 @@
             <v>8</v>
           </cell>
           <cell r="C12" t="str">
-            <v>캐릭터 완전체</v>
+            <v>8 캐릭터 완전체</v>
           </cell>
         </row>
         <row r="13">
@@ -1035,7 +987,7 @@
             <v>9</v>
           </cell>
           <cell r="C13" t="str">
-            <v>각종 소모용 아이템</v>
+            <v>9 각종 소모용 아이템</v>
           </cell>
         </row>
         <row r="14">
@@ -1046,7 +998,7 @@
             <v>10</v>
           </cell>
           <cell r="C14" t="str">
-            <v>장비</v>
+            <v>10 장비</v>
           </cell>
         </row>
         <row r="15">
@@ -1057,7 +1009,7 @@
             <v>11</v>
           </cell>
           <cell r="C15" t="str">
-            <v>호감도 아이템</v>
+            <v>11 호감도 아이템</v>
           </cell>
         </row>
         <row r="16">
@@ -1068,7 +1020,7 @@
             <v>12</v>
           </cell>
           <cell r="C16" t="str">
-            <v>스태미나</v>
+            <v>12 스태미나</v>
           </cell>
         </row>
       </sheetData>
@@ -1432,7 +1384,7 @@
       </c>
       <c r="C4" s="4" t="str">
         <f>'[1]@item_type'!$C5</f>
-        <v>금화(게임내 사용되는 재화)</v>
+        <v>1 금화(게임내 사용되는 재화)</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1446,7 +1398,7 @@
       </c>
       <c r="C5" s="4" t="str">
         <f>'[1]@item_type'!$C6</f>
-        <v>보석(게임내 사용되는 유료 재화)</v>
+        <v>2 보석(게임내 사용되는 유료 재화)</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1460,7 +1412,7 @@
       </c>
       <c r="C6" s="4" t="str">
         <f>'[1]@item_type'!$C7</f>
-        <v>던전 입장 티켓</v>
+        <v>3 던전 입장 티켓</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1474,7 +1426,7 @@
       </c>
       <c r="C7" s="4" t="str">
         <f>'[1]@item_type'!$C8</f>
-        <v>캐릭터 조각</v>
+        <v>4 캐릭터 조각</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1488,7 +1440,7 @@
       </c>
       <c r="C8" s="4" t="str">
         <f>'[1]@item_type'!$C9</f>
-        <v>경험치 물약</v>
+        <v>5 경험치 물약</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1502,7 +1454,7 @@
       </c>
       <c r="C9" s="4" t="str">
         <f>'[1]@item_type'!$C10</f>
-        <v>스테미나 회복 물약</v>
+        <v>6 스테미나 회복 물약</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1516,7 +1468,7 @@
       </c>
       <c r="C10" s="4" t="str">
         <f>'[1]@item_type'!$C11</f>
-        <v>메모리얼에서 사용될 아이템</v>
+        <v>7 메모리얼에서 사용될 아이템</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1530,7 +1482,7 @@
       </c>
       <c r="C11" s="4" t="str">
         <f>'[1]@item_type'!$C12</f>
-        <v>캐릭터 완전체</v>
+        <v>8 캐릭터 완전체</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1544,7 +1496,7 @@
       </c>
       <c r="C12" s="4" t="str">
         <f>'[1]@item_type'!$C13</f>
-        <v>각종 소모용 아이템</v>
+        <v>9 각종 소모용 아이템</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1558,7 +1510,7 @@
       </c>
       <c r="C13" s="4" t="str">
         <f>'[1]@item_type'!$C14</f>
-        <v>장비</v>
+        <v>10 장비</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1572,7 +1524,7 @@
       </c>
       <c r="C14" s="4" t="str">
         <f>'[1]@item_type'!$C15</f>
-        <v>호감도 아이템</v>
+        <v>11 호감도 아이템</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1586,7 +1538,7 @@
       </c>
       <c r="C15" s="4" t="str">
         <f>'[1]@item_type'!$C16</f>
-        <v>스태미나</v>
+        <v>12 스태미나</v>
       </c>
     </row>
   </sheetData>
@@ -1694,7 +1646,7 @@
       </c>
       <c r="B5" s="4" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$15,MATCH(A5,'!참조_ENUM'!$B$3:$B$15,0))</f>
-        <v>금화(게임내 사용되는 재화)</v>
+        <v>1 금화(게임내 사용되는 재화)</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>20</v>
@@ -1716,7 +1668,7 @@
       </c>
       <c r="B6" s="4" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$15,MATCH(A6,'!참조_ENUM'!$B$3:$B$15,0))</f>
-        <v>보석(게임내 사용되는 유료 재화)</v>
+        <v>2 보석(게임내 사용되는 유료 재화)</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>22</v>
@@ -1738,7 +1690,7 @@
       </c>
       <c r="B7" s="4" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$15,MATCH(A7,'!참조_ENUM'!$B$3:$B$15,0))</f>
-        <v>던전 입장 티켓</v>
+        <v>3 던전 입장 티켓</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>24</v>
@@ -1760,7 +1712,7 @@
       </c>
       <c r="B8" s="4" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$15,MATCH(A8,'!참조_ENUM'!$B$3:$B$15,0))</f>
-        <v>캐릭터 조각</v>
+        <v>4 캐릭터 조각</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>26</v>
@@ -1780,7 +1732,7 @@
       </c>
       <c r="B9" s="4" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$15,MATCH(A9,'!참조_ENUM'!$B$3:$B$15,0))</f>
-        <v>경험치 물약</v>
+        <v>5 경험치 물약</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>27</v>
@@ -1800,7 +1752,7 @@
       </c>
       <c r="B10" s="4" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$15,MATCH(A10,'!참조_ENUM'!$B$3:$B$15,0))</f>
-        <v>스테미나 회복 물약</v>
+        <v>6 스테미나 회복 물약</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>28</v>
@@ -1820,7 +1772,7 @@
       </c>
       <c r="B11" s="4" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$15,MATCH(A11,'!참조_ENUM'!$B$3:$B$15,0))</f>
-        <v>메모리얼에서 사용될 아이템</v>
+        <v>7 메모리얼에서 사용될 아이템</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>29</v>
@@ -1840,7 +1792,7 @@
       </c>
       <c r="B12" s="4" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$15,MATCH(A12,'!참조_ENUM'!$B$3:$B$15,0))</f>
-        <v>캐릭터 완전체</v>
+        <v>8 캐릭터 완전체</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>32</v>
@@ -1862,7 +1814,7 @@
       </c>
       <c r="B13" s="4" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$15,MATCH(A13,'!참조_ENUM'!$B$3:$B$15,0))</f>
-        <v>각종 소모용 아이템</v>
+        <v>9 각종 소모용 아이템</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>30</v>
@@ -1882,7 +1834,7 @@
       </c>
       <c r="B14" s="4" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$15,MATCH(A14,'!참조_ENUM'!$B$3:$B$15,0))</f>
-        <v>장비</v>
+        <v>10 장비</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>31</v>
@@ -1904,13 +1856,13 @@
       </c>
       <c r="B15" s="4" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$15,MATCH(A15,'!참조_ENUM'!$B$3:$B$15,0))</f>
-        <v>호감도 아이템</v>
+        <v>11 호감도 아이템</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E15" s="4" t="b">
         <v>0</v>
@@ -1926,13 +1878,13 @@
       </c>
       <c r="B16" s="4" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$15,MATCH(A16,'!참조_ENUM'!$B$3:$B$15,0))</f>
-        <v>스태미나</v>
+        <v>12 스태미나</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E16" s="4" t="b">
         <v>0</v>
@@ -1989,7 +1941,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -2009,7 +1961,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -2029,7 +1981,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
@@ -2064,7 +2016,7 @@
         <v>60</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2173,7 +2125,7 @@
         <v>100</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2193,7 +2145,7 @@
         <v>150</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2213,7 +2165,7 @@
         <v>300</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -2233,7 +2185,7 @@
         <v>500</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2262,7 +2214,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2307,7 +2259,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
@@ -2342,7 +2294,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2362,7 +2314,7 @@
         <v>75</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2382,7 +2334,7 @@
         <v>100</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2392,106 +2344,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA552F8F-374E-479E-B82B-E4BD6D182486}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="42.5" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>70001</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="4">
-        <v>100</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD83EE68-2622-4A0B-8424-730699429833}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -2507,24 +2363,24 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>37</v>
@@ -2552,16 +2408,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>38</v>
@@ -2575,19 +2431,19 @@
         <v>40001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C5" s="4">
         <v>500</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E5" s="4">
         <v>1000</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2595,19 +2451,19 @@
         <v>40002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C6" s="4">
         <v>500</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E6" s="4">
         <v>1000</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2615,19 +2471,19 @@
         <v>40003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C7" s="4">
         <v>500</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E7" s="4">
         <v>1000</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -2635,19 +2491,19 @@
         <v>40010</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C8" s="4">
         <v>2000</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E8" s="4">
         <v>5000</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2657,11 +2513,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303419CA-983B-46A1-A99F-B2A6FFA71C4A}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -2676,12 +2532,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -2715,7 +2571,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
@@ -2735,16 +2591,16 @@
         <v>90001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D5" s="4">
         <v>50</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2752,16 +2608,16 @@
         <v>90002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D6" s="4">
         <v>100</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/ItemTable.xlsx
+++ b/Android/ExcelData/ItemTable.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53FA35F-9312-48A8-99B3-611E343C651C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E13C20-1D6B-4EE6-8366-00692CFB19E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{B2628D29-E062-4AF2-A082-150E494F11EB}"/>
+    <workbookView xWindow="2265" yWindow="2715" windowWidth="35370" windowHeight="15435" activeTab="6" xr2:uid="{B2628D29-E062-4AF2-A082-150E494F11EB}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
-    <sheet name="item_type_data" sheetId="2" r:id="rId2"/>
-    <sheet name="character_piece" sheetId="3" r:id="rId3"/>
-    <sheet name="exp_potion" sheetId="4" r:id="rId4"/>
-    <sheet name="sta_potion" sheetId="5" r:id="rId5"/>
-    <sheet name="favorite_item" sheetId="8" r:id="rId6"/>
-    <sheet name="expendable_item" sheetId="7" r:id="rId7"/>
+    <sheet name="!item_type_data" sheetId="2" r:id="rId2"/>
+    <sheet name="!character_piece" sheetId="3" r:id="rId3"/>
+    <sheet name="!exp_potion" sheetId="4" r:id="rId4"/>
+    <sheet name="!sta_potion" sheetId="5" r:id="rId5"/>
+    <sheet name="!favorite_item" sheetId="8" r:id="rId6"/>
+    <sheet name="!expendable_item" sheetId="7" r:id="rId7"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId8"/>
@@ -825,7 +825,6 @@
       <sheetName val="@npc"/>
       <sheetName val="@target_rule"/>
       <sheetName val="@character_sort"/>
-      <sheetName val="@stage_common"/>
       <sheetName val="@second_target_rule"/>
       <sheetName val="@effect"/>
       <sheetName val="@stat"/>
@@ -840,6 +839,17 @@
       <sheetName val="@inequality_type"/>
       <sheetName val="@skill_type"/>
       <sheetName val="@item_type"/>
+      <sheetName val="@Limit"/>
+      <sheetName val="@item_type_v2"/>
+      <sheetName val="@goods_type"/>
+      <sheetName val="@piece_type"/>
+      <sheetName val="@eqipment_type"/>
+      <sheetName val="@drop_type"/>
+      <sheetName val="@repeat_type"/>
+      <sheetName val="@charge_type"/>
+      <sheetName val="@reward_type"/>
+      <sheetName val="@effect_count_type"/>
+      <sheetName val="@love_level_type"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -862,8 +872,7 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21">
+      <sheetData sheetId="20">
         <row r="1">
           <cell r="A1" t="str">
             <v>ITEM_TYPE</v>
@@ -965,7 +974,7 @@
             <v>7</v>
           </cell>
           <cell r="C11" t="str">
-            <v>7 메모리얼에서 사용될 아이템</v>
+            <v>7 사용하지 않음</v>
           </cell>
         </row>
         <row r="12">
@@ -1024,6 +1033,17 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1468,7 +1488,7 @@
       </c>
       <c r="C10" s="4" t="str">
         <f>'[1]@item_type'!$C11</f>
-        <v>7 메모리얼에서 사용될 아이템</v>
+        <v>7 사용하지 않음</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1772,7 +1792,7 @@
       </c>
       <c r="B11" s="4" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$15,MATCH(A11,'!참조_ENUM'!$B$3:$B$15,0))</f>
-        <v>7 메모리얼에서 사용될 아이템</v>
+        <v>7 사용하지 않음</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>29</v>
@@ -2347,7 +2367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD83EE68-2622-4A0B-8424-730699429833}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -2517,7 +2537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303419CA-983B-46A1-A99F-B2A6FFA71C4A}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
